--- a/impdata/Data/DrugData_v02.xlsx
+++ b/impdata/Data/DrugData_v02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\A02_WorkDB\03_Django\adjCOADD\impdata\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F1C560-C1A8-4F86-B0BB-E2BF6ED5CD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD34FA23-751B-4FAA-B646-6D45C410F21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="0" windowWidth="26400" windowHeight="12030" activeTab="1" xr2:uid="{33990AB3-03F3-4329-A79F-AB5C7664C830}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{33990AB3-03F3-4329-A79F-AB5C7664C830}"/>
   </bookViews>
   <sheets>
     <sheet name="Gene" sheetId="1" r:id="rId1"/>
@@ -8744,10 +8744,10 @@
   <dimension ref="A1:AG232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C227" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C110" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B234" sqref="B234"/>
+      <selection pane="bottomRight" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
